--- a/机场地址.xlsx
+++ b/机场地址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="636">
   <si>
     <t>缩写</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1248,19 +1248,794 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>机场代号</t>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驼峰机场</t>
+  </si>
+  <si>
+    <t>腾冲</t>
+  </si>
+  <si>
+    <t>TCZ</t>
+  </si>
+  <si>
+    <t>运城关公机场</t>
+  </si>
+  <si>
+    <t>长白山</t>
+  </si>
+  <si>
+    <t>阿克苏</t>
+  </si>
+  <si>
+    <t>阿勒泰</t>
+  </si>
+  <si>
+    <t>安庆机场</t>
+  </si>
+  <si>
+    <t>安庆</t>
+  </si>
+  <si>
+    <t>包头机场</t>
+  </si>
+  <si>
+    <t>包头</t>
+  </si>
+  <si>
+    <t>云端机场</t>
+  </si>
+  <si>
+    <t>保山</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>福城机场</t>
+  </si>
+  <si>
+    <t>北海</t>
+  </si>
+  <si>
+    <t>首都国际机场</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>桃花源机场</t>
+  </si>
+  <si>
+    <t>常德</t>
+  </si>
+  <si>
+    <t>奔牛机场</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>双流国际机场</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>CTU</t>
+  </si>
+  <si>
+    <t>达县机场</t>
+  </si>
+  <si>
+    <t>达县</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>大理机场</t>
+  </si>
+  <si>
+    <t>大理</t>
+  </si>
+  <si>
+    <t>DLU</t>
+  </si>
+  <si>
+    <t>周水子机场</t>
+  </si>
+  <si>
+    <t>大连</t>
+  </si>
+  <si>
+    <t>大庆萨尔图机场</t>
+  </si>
+  <si>
+    <t>大庆</t>
+  </si>
+  <si>
+    <t>DQA</t>
+  </si>
+  <si>
+    <t>大同机场</t>
+  </si>
+  <si>
+    <t>大同</t>
+  </si>
+  <si>
+    <t>浪头机场</t>
+  </si>
+  <si>
+    <t>丹东</t>
+  </si>
+  <si>
+    <t>德宏芒市机场</t>
+  </si>
+  <si>
+    <t>德宏</t>
+  </si>
+  <si>
+    <t>LUM</t>
+  </si>
+  <si>
+    <t>迪庆香格里拉机场</t>
+  </si>
+  <si>
+    <t>迪庆</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>鄂尔多斯机场</t>
+  </si>
+  <si>
+    <t>鄂尔多斯</t>
+  </si>
+  <si>
+    <t>许家坪机场</t>
+  </si>
+  <si>
+    <t>恩施</t>
+  </si>
+  <si>
+    <t>长乐机场</t>
+  </si>
+  <si>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>阜阳机场</t>
+  </si>
+  <si>
+    <t>阜阳</t>
+  </si>
+  <si>
+    <t>FUG</t>
+  </si>
+  <si>
+    <t>黄金机场</t>
+  </si>
+  <si>
+    <t>赣州</t>
+  </si>
+  <si>
+    <t>广元机场</t>
+  </si>
+  <si>
+    <t>广元</t>
+  </si>
+  <si>
+    <t>GYS</t>
+  </si>
+  <si>
+    <t>新白云国际机场</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>龙洞堡机场</t>
+  </si>
+  <si>
+    <t>贵阳</t>
+  </si>
+  <si>
+    <t>KWE</t>
+  </si>
+  <si>
+    <t>两江国际机场</t>
+  </si>
+  <si>
+    <t>桂林</t>
+  </si>
+  <si>
+    <t>太平机场</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>哈密机场</t>
+  </si>
+  <si>
+    <t>哈密</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>美兰机场</t>
+  </si>
+  <si>
+    <t>海口</t>
+  </si>
+  <si>
+    <t>东山机场</t>
+  </si>
+  <si>
+    <t>海拉尔</t>
+  </si>
+  <si>
+    <t>萧山国际机场</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>骆岗机场</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>黎平机场</t>
+  </si>
+  <si>
+    <t>贺州</t>
+  </si>
+  <si>
+    <t>HZH</t>
+  </si>
+  <si>
+    <t>黑河</t>
+  </si>
+  <si>
+    <t>白塔机场</t>
+  </si>
+  <si>
+    <t>呼和浩特</t>
+  </si>
+  <si>
+    <t>怀化</t>
+  </si>
+  <si>
+    <t>屯溪机场</t>
+  </si>
+  <si>
+    <t>黄山</t>
+  </si>
+  <si>
+    <t>遥墙机场</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>济宁曲阜机场</t>
+  </si>
+  <si>
+    <t>JNG</t>
+  </si>
+  <si>
+    <t>东郊机场</t>
+  </si>
+  <si>
+    <t>佳木斯</t>
+  </si>
+  <si>
+    <t>晋江</t>
+  </si>
+  <si>
+    <t>井冈山机场</t>
+  </si>
+  <si>
+    <t>井冈山</t>
+  </si>
+  <si>
+    <t>景德镇机场</t>
+  </si>
+  <si>
+    <t>景德镇</t>
+  </si>
+  <si>
+    <t>西双版纳机场</t>
+  </si>
+  <si>
+    <t>景洪</t>
+  </si>
+  <si>
+    <t>JHG</t>
+  </si>
+  <si>
+    <t>九黄机场</t>
+  </si>
+  <si>
+    <t>九寨沟</t>
+  </si>
+  <si>
+    <t>JZH</t>
+  </si>
+  <si>
+    <t>喀什机场</t>
+  </si>
+  <si>
+    <t>喀什</t>
+  </si>
+  <si>
+    <t>KHG</t>
+  </si>
+  <si>
+    <t>库车机场</t>
+  </si>
+  <si>
+    <t>库车</t>
+  </si>
+  <si>
+    <t>KCA</t>
+  </si>
+  <si>
+    <t>库尔勒机场</t>
+  </si>
+  <si>
+    <t>库尔勒</t>
+  </si>
+  <si>
+    <t>KRL</t>
+  </si>
+  <si>
+    <t>巫家坝国际机场</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>KMG</t>
+  </si>
+  <si>
+    <t>贡嘎机场</t>
+  </si>
+  <si>
+    <t>拉萨</t>
+  </si>
+  <si>
+    <t>LXA</t>
+  </si>
+  <si>
+    <t>中川机场</t>
+  </si>
+  <si>
+    <t>兰州</t>
+  </si>
+  <si>
+    <t>丽江机场</t>
+  </si>
+  <si>
+    <t>丽江</t>
+  </si>
+  <si>
+    <t>LJG</t>
+  </si>
+  <si>
+    <t>白塔阜机场</t>
+  </si>
+  <si>
+    <t>连云港</t>
+  </si>
+  <si>
+    <t>白莲机场</t>
+  </si>
+  <si>
+    <t>柳州</t>
+  </si>
+  <si>
+    <t>兰田坝机场</t>
+  </si>
+  <si>
+    <t>泸州</t>
+  </si>
+  <si>
+    <t>LZO</t>
+  </si>
+  <si>
+    <t>北郊机场</t>
+  </si>
+  <si>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>满洲里机场</t>
+  </si>
+  <si>
+    <t>满洲里</t>
+  </si>
+  <si>
+    <t>绵阳机场</t>
+  </si>
+  <si>
+    <t>绵阳</t>
+  </si>
+  <si>
+    <t>MIG</t>
+  </si>
+  <si>
+    <t>漠河机场</t>
+  </si>
+  <si>
+    <t>漠河</t>
+  </si>
+  <si>
+    <t>海浪机场</t>
+  </si>
+  <si>
+    <t>牡丹江</t>
+  </si>
+  <si>
+    <t>昌北机场</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>南充机场</t>
+  </si>
+  <si>
+    <t>南充</t>
+  </si>
+  <si>
+    <t>NAO</t>
+  </si>
+  <si>
+    <t>禄口国际机场</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>吴圩机场</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>兴东机场</t>
+  </si>
+  <si>
+    <t>南通</t>
+  </si>
+  <si>
+    <t>姜营机场</t>
+  </si>
+  <si>
+    <t>南阳</t>
+  </si>
+  <si>
+    <t>栎社机场</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>攀枝花机场</t>
+  </si>
+  <si>
+    <t>攀枝花</t>
+  </si>
+  <si>
+    <t>PZI</t>
+  </si>
+  <si>
+    <t>三家子机场</t>
+  </si>
+  <si>
+    <t>齐齐哈尔</t>
+  </si>
+  <si>
+    <t>且末机场</t>
+  </si>
+  <si>
+    <t>且末</t>
+  </si>
+  <si>
+    <t>IQM</t>
+  </si>
+  <si>
+    <t>流亭机场</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>凤凰国际机场</t>
+  </si>
+  <si>
+    <t>三亚</t>
+  </si>
+  <si>
+    <t>高崎国际机场</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>外砂机场</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>虹桥国际机场</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>浦东国际机场</t>
+  </si>
+  <si>
+    <t>宝安国际机场</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>桃仙机场</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>正定国际机场</t>
+  </si>
+  <si>
+    <t>石家庄</t>
+  </si>
+  <si>
+    <t>思茅机场</t>
+  </si>
+  <si>
+    <t>思茅</t>
+  </si>
+  <si>
+    <t>SYM</t>
+  </si>
+  <si>
+    <t>黄岩机场</t>
+  </si>
+  <si>
+    <t>台州</t>
+  </si>
+  <si>
+    <t>太原武宿机场</t>
+  </si>
+  <si>
+    <t>太原</t>
+  </si>
+  <si>
+    <t>滨海国际机场</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>铜仁机场</t>
+  </si>
+  <si>
+    <t>铜仁</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>万州机场</t>
+  </si>
+  <si>
+    <t>万州</t>
+  </si>
+  <si>
+    <t>WXN</t>
+  </si>
+  <si>
+    <t>大水泊机场</t>
+  </si>
+  <si>
+    <t>威海</t>
+  </si>
+  <si>
+    <t>永强机场</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>地窝堡国际机场</t>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>硕放机场</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>长洲机场</t>
+  </si>
+  <si>
+    <t>梧州</t>
+  </si>
+  <si>
+    <t>WUZ</t>
+  </si>
+  <si>
+    <t>天河机场</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>咸阳机场</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>青山机场</t>
+  </si>
+  <si>
+    <t>西昌</t>
+  </si>
+  <si>
+    <t>XIC</t>
+  </si>
+  <si>
+    <t>曹家堡机场</t>
+  </si>
+  <si>
+    <t>西宁</t>
+  </si>
+  <si>
+    <t>刘集机场</t>
+  </si>
+  <si>
+    <t>襄樊</t>
+  </si>
+  <si>
+    <t>观音机场</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>莱山机场</t>
+  </si>
+  <si>
+    <t>烟台</t>
+  </si>
+  <si>
+    <t>朝阳川机场</t>
+  </si>
+  <si>
+    <t>延吉</t>
+  </si>
+  <si>
+    <t>盐城南洋机场</t>
+  </si>
+  <si>
+    <t>伊春林都机场</t>
+  </si>
+  <si>
+    <t>伊春</t>
+  </si>
+  <si>
+    <t>LDS</t>
+  </si>
+  <si>
+    <t>莱坝机场</t>
+  </si>
+  <si>
+    <t>宜宾</t>
+  </si>
+  <si>
+    <t>YBP</t>
+  </si>
+  <si>
+    <t>三峡机场</t>
+  </si>
+  <si>
+    <t>宜昌</t>
+  </si>
+  <si>
+    <t>河东机场</t>
+  </si>
+  <si>
+    <t>银川</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>永州机场</t>
+  </si>
+  <si>
+    <t>永州</t>
+  </si>
+  <si>
+    <t>榆阳机场</t>
+  </si>
+  <si>
+    <t>榆林</t>
+  </si>
+  <si>
+    <t>张家界机场</t>
+  </si>
+  <si>
+    <t>张家界</t>
+  </si>
+  <si>
+    <t>长春</t>
+  </si>
+  <si>
+    <t>黄花机场</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>长治机场</t>
+  </si>
+  <si>
+    <t>长治</t>
+  </si>
+  <si>
+    <t>新郑机场</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>江北国际机场</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>舟山</t>
+  </si>
+  <si>
+    <t>三灶机场</t>
+  </si>
+  <si>
+    <t>珠海</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1283,6 +2058,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1338,27 +2120,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1640,1780 +2418,2996 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="3" width="22.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="22.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="F1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" t="s">
+        <v>403</v>
+      </c>
+      <c r="G15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F17" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" t="s">
+        <v>407</v>
+      </c>
+      <c r="E18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" t="s">
+        <v>410</v>
+      </c>
+      <c r="E19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E23" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" t="s">
+        <v>424</v>
+      </c>
+      <c r="G24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" t="s">
+        <v>425</v>
+      </c>
+      <c r="E25" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E27" t="s">
+        <v>430</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" t="s">
+        <v>431</v>
+      </c>
+      <c r="E28" t="s">
+        <v>432</v>
+      </c>
+      <c r="F28" t="s">
+        <v>433</v>
+      </c>
+      <c r="G28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E29" t="s">
+        <v>435</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F30" t="s">
+        <v>438</v>
+      </c>
+      <c r="G30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E31" t="s">
+        <v>440</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E32" t="s">
+        <v>442</v>
+      </c>
+      <c r="F32" t="s">
+        <v>443</v>
+      </c>
+      <c r="G32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" t="s">
+        <v>444</v>
+      </c>
+      <c r="E33" t="s">
+        <v>445</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" t="s">
+        <v>446</v>
+      </c>
+      <c r="E34" t="s">
+        <v>447</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" t="s">
+        <v>448</v>
+      </c>
+      <c r="E35" t="s">
+        <v>449</v>
+      </c>
+      <c r="F35" t="s">
+        <v>450</v>
+      </c>
+      <c r="G35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" t="s">
+        <v>451</v>
+      </c>
+      <c r="E36" t="s">
+        <v>452</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37" t="s">
+        <v>454</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" t="s">
+        <v>455</v>
+      </c>
+      <c r="E39" t="s">
+        <v>456</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" t="s">
+        <v>457</v>
+      </c>
+      <c r="E40" t="s">
+        <v>458</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" t="s">
+        <v>459</v>
+      </c>
+      <c r="E42" t="s">
+        <v>460</v>
+      </c>
+      <c r="F42" t="s">
+        <v>461</v>
+      </c>
+      <c r="G42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" t="s">
+        <v>462</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" t="s">
+        <v>463</v>
+      </c>
+      <c r="E44" t="s">
+        <v>464</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" t="s">
+        <v>465</v>
+      </c>
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" t="s">
+        <v>466</v>
+      </c>
+      <c r="E46" t="s">
+        <v>467</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" t="s">
+        <v>468</v>
+      </c>
+      <c r="E47" t="s">
+        <v>469</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" t="s">
+        <v>470</v>
+      </c>
+      <c r="E48" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" t="s">
+        <v>471</v>
+      </c>
+      <c r="G48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" t="s">
+        <v>472</v>
+      </c>
+      <c r="E49" t="s">
+        <v>473</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" t="s">
+        <v>474</v>
+      </c>
+      <c r="F50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" t="s">
+        <v>475</v>
+      </c>
+      <c r="E51" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" t="s">
+        <v>477</v>
+      </c>
+      <c r="E52" t="s">
+        <v>478</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" t="s">
+        <v>479</v>
+      </c>
+      <c r="E53" t="s">
+        <v>480</v>
+      </c>
+      <c r="F53" t="s">
+        <v>481</v>
+      </c>
+      <c r="G53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" t="s">
+        <v>482</v>
+      </c>
+      <c r="E54" t="s">
+        <v>483</v>
+      </c>
+      <c r="F54" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" t="s">
+        <v>485</v>
+      </c>
+      <c r="E55" t="s">
+        <v>486</v>
+      </c>
+      <c r="F55" t="s">
+        <v>487</v>
+      </c>
+      <c r="G55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" t="s">
+        <v>488</v>
+      </c>
+      <c r="E57" t="s">
+        <v>489</v>
+      </c>
+      <c r="F57" t="s">
+        <v>490</v>
+      </c>
+      <c r="G57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" t="s">
+        <v>491</v>
+      </c>
+      <c r="E58" t="s">
+        <v>492</v>
+      </c>
+      <c r="F58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" t="s">
+        <v>494</v>
+      </c>
+      <c r="E59" t="s">
+        <v>495</v>
+      </c>
+      <c r="F59" t="s">
+        <v>496</v>
+      </c>
+      <c r="G59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" t="s">
+        <v>497</v>
+      </c>
+      <c r="E60" t="s">
+        <v>498</v>
+      </c>
+      <c r="F60" t="s">
+        <v>499</v>
+      </c>
+      <c r="G60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" t="s">
+        <v>500</v>
+      </c>
+      <c r="E61" t="s">
+        <v>501</v>
+      </c>
+      <c r="F61" t="s">
+        <v>110</v>
+      </c>
+      <c r="G61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" t="s">
+        <v>502</v>
+      </c>
+      <c r="E62" t="s">
+        <v>503</v>
+      </c>
+      <c r="F62" t="s">
+        <v>504</v>
+      </c>
+      <c r="G62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" t="s">
+        <v>505</v>
+      </c>
+      <c r="E63" t="s">
+        <v>506</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" t="s">
+        <v>507</v>
+      </c>
+      <c r="E65" t="s">
+        <v>508</v>
+      </c>
+      <c r="F65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" t="s">
+        <v>509</v>
+      </c>
+      <c r="E66" t="s">
+        <v>510</v>
+      </c>
+      <c r="F66" t="s">
+        <v>511</v>
+      </c>
+      <c r="G66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" t="s">
+        <v>512</v>
+      </c>
+      <c r="E67" t="s">
+        <v>513</v>
+      </c>
+      <c r="F67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" t="s">
+        <v>514</v>
+      </c>
+      <c r="E68" t="s">
+        <v>515</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" t="s">
+        <v>293</v>
+      </c>
+      <c r="F69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" t="s">
+        <v>516</v>
+      </c>
+      <c r="E70" t="s">
+        <v>517</v>
+      </c>
+      <c r="F70" t="s">
+        <v>518</v>
+      </c>
+      <c r="G70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" t="s">
+        <v>519</v>
+      </c>
+      <c r="E71" t="s">
+        <v>520</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" t="s">
+        <v>521</v>
+      </c>
+      <c r="E72" t="s">
+        <v>522</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" t="s">
+        <v>523</v>
+      </c>
+      <c r="E73" t="s">
+        <v>524</v>
+      </c>
+      <c r="F73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" t="s">
+        <v>525</v>
+      </c>
+      <c r="E74" t="s">
+        <v>526</v>
+      </c>
+      <c r="F74" t="s">
+        <v>527</v>
+      </c>
+      <c r="G74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" t="s">
+        <v>528</v>
+      </c>
+      <c r="E75" t="s">
+        <v>529</v>
+      </c>
+      <c r="F75" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" t="s">
+        <v>530</v>
+      </c>
+      <c r="E76" t="s">
+        <v>531</v>
+      </c>
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" t="s">
+        <v>532</v>
+      </c>
+      <c r="E77" t="s">
+        <v>533</v>
+      </c>
+      <c r="F77" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" t="s">
+        <v>534</v>
+      </c>
+      <c r="E78" t="s">
+        <v>535</v>
+      </c>
+      <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" t="s">
+        <v>536</v>
+      </c>
+      <c r="E79" t="s">
+        <v>537</v>
+      </c>
+      <c r="F79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" t="s">
+        <v>538</v>
+      </c>
+      <c r="E80" t="s">
+        <v>539</v>
+      </c>
+      <c r="F80" t="s">
+        <v>540</v>
+      </c>
+      <c r="G80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" t="s">
+        <v>541</v>
+      </c>
+      <c r="E81" t="s">
+        <v>542</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" t="s">
+        <v>543</v>
+      </c>
+      <c r="E82" t="s">
+        <v>544</v>
+      </c>
+      <c r="F82" t="s">
+        <v>545</v>
+      </c>
+      <c r="G82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" t="s">
+        <v>546</v>
+      </c>
+      <c r="E83" t="s">
+        <v>547</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" t="s">
+        <v>289</v>
+      </c>
+      <c r="F84" t="s">
+        <v>78</v>
+      </c>
+      <c r="G84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" t="s">
+        <v>548</v>
+      </c>
+      <c r="E85" t="s">
+        <v>549</v>
+      </c>
+      <c r="F85" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" t="s">
+        <v>550</v>
+      </c>
+      <c r="E86" t="s">
+        <v>551</v>
+      </c>
+      <c r="F86" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" t="s">
+        <v>552</v>
+      </c>
+      <c r="E87" t="s">
+        <v>553</v>
+      </c>
+      <c r="F87" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" t="s">
+        <v>554</v>
+      </c>
+      <c r="E88" t="s">
+        <v>555</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" t="s">
+        <v>556</v>
+      </c>
+      <c r="E89" t="s">
+        <v>555</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" t="s">
+        <v>557</v>
+      </c>
+      <c r="E90" t="s">
+        <v>558</v>
+      </c>
+      <c r="F90" t="s">
+        <v>94</v>
+      </c>
+      <c r="G90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" t="s">
+        <v>559</v>
+      </c>
+      <c r="E91" t="s">
+        <v>560</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" t="s">
+        <v>561</v>
+      </c>
+      <c r="E92" t="s">
+        <v>562</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" t="s">
+        <v>563</v>
+      </c>
+      <c r="E93" t="s">
+        <v>564</v>
+      </c>
+      <c r="F93" t="s">
+        <v>565</v>
+      </c>
+      <c r="G93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" t="s">
+        <v>566</v>
+      </c>
+      <c r="E94" t="s">
+        <v>567</v>
+      </c>
+      <c r="F94" t="s">
+        <v>77</v>
+      </c>
+      <c r="G94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" t="s">
+        <v>568</v>
+      </c>
+      <c r="E95" t="s">
+        <v>569</v>
+      </c>
+      <c r="F95" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" t="s">
+        <v>570</v>
+      </c>
+      <c r="E96" t="s">
+        <v>571</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" t="s">
+        <v>286</v>
+      </c>
+      <c r="F97" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" t="s">
+        <v>572</v>
+      </c>
+      <c r="E98" t="s">
+        <v>573</v>
+      </c>
+      <c r="F98" t="s">
+        <v>574</v>
+      </c>
+      <c r="G98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" t="s">
+        <v>575</v>
+      </c>
+      <c r="E99" t="s">
+        <v>576</v>
+      </c>
+      <c r="F99" t="s">
+        <v>577</v>
+      </c>
+      <c r="G99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" t="s">
+        <v>578</v>
+      </c>
+      <c r="E100" t="s">
+        <v>579</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" t="s">
+        <v>580</v>
+      </c>
+      <c r="E101" t="s">
+        <v>581</v>
+      </c>
+      <c r="F101" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" t="s">
+        <v>582</v>
+      </c>
+      <c r="E102" t="s">
+        <v>583</v>
+      </c>
+      <c r="F102" t="s">
+        <v>117</v>
+      </c>
+      <c r="G102">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" t="s">
+        <v>584</v>
+      </c>
+      <c r="E103" t="s">
+        <v>585</v>
+      </c>
+      <c r="F103" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" t="s">
+        <v>586</v>
+      </c>
+      <c r="E104" t="s">
+        <v>587</v>
+      </c>
+      <c r="F104" t="s">
+        <v>588</v>
+      </c>
+      <c r="G104">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" t="s">
+        <v>589</v>
+      </c>
+      <c r="E105" t="s">
+        <v>590</v>
+      </c>
+      <c r="F105" t="s">
+        <v>48</v>
+      </c>
+      <c r="G105">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" t="s">
+        <v>90</v>
+      </c>
+      <c r="G106">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" t="s">
+        <v>591</v>
+      </c>
+      <c r="E107" t="s">
+        <v>592</v>
+      </c>
+      <c r="F107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="G107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" t="s">
+        <v>593</v>
+      </c>
+      <c r="E108" t="s">
+        <v>594</v>
+      </c>
+      <c r="F108" t="s">
+        <v>595</v>
+      </c>
+      <c r="G108">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" t="s">
+        <v>596</v>
+      </c>
+      <c r="E109" t="s">
+        <v>597</v>
+      </c>
+      <c r="F109" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" t="s">
+        <v>183</v>
+      </c>
+      <c r="E110" t="s">
+        <v>284</v>
+      </c>
+      <c r="F110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" t="s">
+        <v>598</v>
+      </c>
+      <c r="E111" t="s">
+        <v>599</v>
+      </c>
+      <c r="F111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" t="s">
+        <v>600</v>
+      </c>
+      <c r="E112" t="s">
+        <v>601</v>
+      </c>
+      <c r="F112" t="s">
+        <v>81</v>
+      </c>
+      <c r="G112">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" t="s">
+        <v>602</v>
+      </c>
+      <c r="E113" t="s">
+        <v>603</v>
+      </c>
+      <c r="F113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" t="s">
+        <v>604</v>
+      </c>
+      <c r="E114" t="s">
+        <v>605</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" t="s">
+        <v>606</v>
+      </c>
+      <c r="E115" t="s">
+        <v>290</v>
+      </c>
+      <c r="F115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G115">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" t="s">
+        <v>607</v>
+      </c>
+      <c r="E116" t="s">
+        <v>608</v>
+      </c>
+      <c r="F116" t="s">
+        <v>609</v>
+      </c>
+      <c r="G116">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" t="s">
+        <v>246</v>
+      </c>
+      <c r="E117" t="s">
+        <v>300</v>
+      </c>
+      <c r="F117" t="s">
+        <v>120</v>
+      </c>
+      <c r="G117">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" t="s">
+        <v>610</v>
+      </c>
+      <c r="E118" t="s">
+        <v>611</v>
+      </c>
+      <c r="F118" t="s">
+        <v>612</v>
+      </c>
+      <c r="G118">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" t="s">
+        <v>613</v>
+      </c>
+      <c r="E119" t="s">
+        <v>614</v>
+      </c>
+      <c r="F119" t="s">
+        <v>50</v>
+      </c>
+      <c r="G119">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" t="s">
+        <v>202</v>
+      </c>
+      <c r="E120" t="s">
+        <v>288</v>
+      </c>
+      <c r="F120" t="s">
+        <v>76</v>
+      </c>
+      <c r="G120">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" t="s">
+        <v>615</v>
+      </c>
+      <c r="E121" t="s">
+        <v>616</v>
+      </c>
+      <c r="F121" t="s">
+        <v>617</v>
+      </c>
+      <c r="G121">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" t="s">
+        <v>618</v>
+      </c>
+      <c r="E122" t="s">
+        <v>619</v>
+      </c>
+      <c r="F122" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" t="s">
+        <v>620</v>
+      </c>
+      <c r="E123" t="s">
+        <v>621</v>
+      </c>
+      <c r="F123" t="s">
+        <v>109</v>
+      </c>
+      <c r="G123">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" t="s">
+        <v>223</v>
+      </c>
+      <c r="E124" t="s">
+        <v>292</v>
+      </c>
+      <c r="F124" t="s">
+        <v>97</v>
+      </c>
+      <c r="G124">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" t="s">
+        <v>622</v>
+      </c>
+      <c r="E125" t="s">
+        <v>623</v>
+      </c>
+      <c r="F125" t="s">
+        <v>43</v>
+      </c>
+      <c r="G125">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" t="s">
+        <v>139</v>
+      </c>
+      <c r="E126" t="s">
+        <v>624</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126">
         <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>625</v>
+      </c>
+      <c r="E127" t="s">
+        <v>626</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>627</v>
+      </c>
+      <c r="E128" t="s">
+        <v>628</v>
+      </c>
+      <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>629</v>
+      </c>
+      <c r="E129" t="s">
+        <v>630</v>
+      </c>
+      <c r="F129" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>631</v>
+      </c>
+      <c r="E130" t="s">
+        <v>632</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>201</v>
+      </c>
+      <c r="E131" t="s">
+        <v>633</v>
+      </c>
+      <c r="F131" t="s">
+        <v>75</v>
+      </c>
+      <c r="G131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>634</v>
+      </c>
+      <c r="E132" t="s">
+        <v>635</v>
+      </c>
+      <c r="F132" t="s">
+        <v>95</v>
+      </c>
+      <c r="G132">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
